--- a/statistics/SPSS/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
@@ -82,9 +82,9 @@
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.42578125" customWidth="true"/>
+    <col min="4" max="4" width="15.7109375" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.7109375" customWidth="true"/>
+    <col min="6" max="6" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0042073323323323086</v>
+        <v>-0.0021036661661661543</v>
       </c>
       <c r="B2" s="0">
-        <v>0.016345999679333006</v>
+        <v>0.0081729998396665032</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0024472154453178963</v>
+        <v>-0.0012236077226589481</v>
       </c>
       <c r="D2" s="0">
-        <v>0.028495842781557118</v>
+        <v>0.014247921390778559</v>
       </c>
       <c r="E2" s="0">
-        <v>0.027652588813303097</v>
+        <v>0.013826294406651549</v>
       </c>
       <c r="F2" s="0">
-        <v>0.012408472160794159</v>
+        <v>0.0062042360803970797</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.022162568731196153</v>
+        <v>-0.011081284365598076</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0064781468142812437</v>
+        <v>-0.0032390734071406219</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.026395002445422616</v>
+        <v>-0.013197501222711308</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.004046062869592304</v>
+        <v>-0.002023031434796152</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.024354186118892063</v>
+        <v>-0.012177093059446031</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.018090862075824526</v>
+        <v>-0.0090454310379122632</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.030509501097736397</v>
+        <v>-0.015254750548868198</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.027964753152723121</v>
+        <v>-0.01398237657636156</v>
       </c>
       <c r="C4" s="0">
-        <v>0.021953030724960548</v>
+        <v>0.010976515362480274</v>
       </c>
       <c r="D4" s="0">
-        <v>0.015075973409306734</v>
+        <v>0.0075379867046533669</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.042560103963612775</v>
+        <v>-0.021280051981806387</v>
       </c>
       <c r="F4" s="0">
-        <v>0.011168677835344504</v>
+        <v>0.0055843389176722519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.034442605871177284</v>
+        <v>0.017221302935588642</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.00058788947677838876</v>
+        <v>-0.00029394473838919438</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.01401379265156355</v>
+        <v>-0.0070068963257817751</v>
       </c>
       <c r="D5" s="0">
-        <v>0.021224146224146256</v>
+        <v>0.010612073112073128</v>
       </c>
       <c r="E5" s="0">
-        <v>0.025963857765328363</v>
+        <v>0.012981928882664182</v>
       </c>
       <c r="F5" s="0">
-        <v>0.024014656367597559</v>
+        <v>0.012007328183798779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0009295009295009482</v>
+        <v>-0.0004647504647504741</v>
       </c>
       <c r="B6" s="0">
-        <v>0.033571333750545246</v>
+        <v>0.016785666875272623</v>
       </c>
       <c r="C6" s="0">
-        <v>0.0017522160379302987</v>
+        <v>0.00087610801896514934</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0023031434796141059</v>
+        <v>0.001151571739807053</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0057649486220914259</v>
+        <v>-0.0028824743110457129</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0003733892622781454</v>
+        <v>0.0001866946311390727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0016648764769064961</v>
+        <v>0.00083243823845324805</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.029756010148167006</v>
+        <v>-0.014878005074083503</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.025675025675025664</v>
+        <v>-0.012837512837512832</v>
       </c>
       <c r="D7" s="0">
-        <v>0.01415343915343914</v>
+        <v>0.0070767195767195701</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0043036659108087738</v>
+        <v>0.0021518329554043869</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0046968169984042685</v>
+        <v>0.0023484084992021342</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0066305801599919334</v>
+        <v>0.0033152900799959667</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0093949260615927288</v>
+        <v>0.0046974630307963644</v>
       </c>
       <c r="C8" s="0">
-        <v>0.013796506256823632</v>
+        <v>0.0068982531284118159</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.026743318409985034</v>
+        <v>-0.013371659204992517</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.013548242119670706</v>
+        <v>-0.006774121059835353</v>
       </c>
       <c r="F8" s="0">
-        <v>0.0001653439153438685</v>
+        <v>8.2671957671934249e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.010892656725990019</v>
+        <v>0.0054463283629950093</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0047375222490430302</v>
+        <v>0.0023687611245215151</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0091248620660385749</v>
+        <v>0.0045624310330192874</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.013177122700932242</v>
+        <v>-0.0065885613504661211</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.028487489271803002</v>
+        <v>-0.014243744635901501</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0044478480150994815</v>
+        <v>0.0022239240075497407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.011809168111689153</v>
+        <v>-0.0059045840558445764</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0073099415204678497</v>
+        <v>-0.0036549707602339249</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0092092092092092293</v>
+        <v>0.0046046046046046146</v>
       </c>
       <c r="D10" s="0">
-        <v>0.037459428215730728</v>
+        <v>0.018729714107865364</v>
       </c>
       <c r="E10" s="0">
-        <v>0.013277166054943834</v>
+        <v>0.0066385830274719171</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0034369303276866603</v>
+        <v>-0.0017184651638433301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0036646994980328029</v>
+        <v>0.0018323497490164015</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0080757449178501806</v>
+        <v>-0.0040378724589250903</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.031317031317031285</v>
+        <v>-0.015658515658515643</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0055716430716430676</v>
+        <v>-0.0027858215358215338</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.019246031746031789</v>
+        <v>-0.0096230158730158943</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.024306968751413222</v>
+        <v>-0.012153484375706611</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.022483202307763711</v>
+        <v>-0.011241601153881856</v>
       </c>
       <c r="B12" s="0">
-        <v>0.026326337729846522</v>
+        <v>0.013163168864923261</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0096872382586668804</v>
+        <v>0.0048436191293334402</v>
       </c>
       <c r="D12" s="0">
-        <v>0.013068385248836398</v>
+        <v>0.0065341926244181989</v>
       </c>
       <c r="E12" s="0">
-        <v>0.029471827717441723</v>
+        <v>0.014735913858720862</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0045448378781711984</v>
+        <v>0.0022724189390855992</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.00042306621253995758</v>
+        <v>0.00021153310626997879</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0010832260832260854</v>
+        <v>-0.00054161304161304269</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0030040378724588979</v>
+        <v>0.0015020189362294489</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.03710317460317461</v>
+        <v>-0.018551587301587305</v>
       </c>
       <c r="E13" s="0">
-        <v>0.017670601003934278</v>
+        <v>0.0088353005019671388</v>
       </c>
       <c r="F13" s="0">
-        <v>0.01489300173510702</v>
+        <v>0.0074465008675535099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.00073906105652138399</v>
+        <v>-0.00036953052826069199</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.008156966490299844</v>
+        <v>-0.004078483245149922</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.025429511143796824</v>
+        <v>-0.012714755571898412</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0027569586393116075</v>
+        <v>0.0013784793196558037</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.020091520091520126</v>
+        <v>-0.010045760045760063</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.014964459408903868</v>
+        <v>-0.0074822297044519342</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.028359528359528346</v>
+        <v>0.014179764179764173</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.033755978200422573</v>
+        <v>-0.016877989100211287</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.010056888252376939</v>
+        <v>-0.0050284441261884694</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.026831342620816281</v>
+        <v>-0.013415671310408141</v>
       </c>
       <c r="E15" s="0">
-        <v>0.015931962010393375</v>
+        <v>0.0079659810051966873</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.0015659825183634846</v>
+        <v>-0.00078299125918174228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.020067686734353329</v>
+        <v>0.010033843367176665</v>
       </c>
       <c r="B16" s="0">
-        <v>0.058921609579504319</v>
+        <v>0.02946080478975216</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.011064177730844338</v>
+        <v>-0.0055320888654221689</v>
       </c>
       <c r="D16" s="0">
-        <v>0.027777777777777762</v>
+        <v>0.013888888888888881</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.010352343685677029</v>
+        <v>-0.0051761718428385145</v>
       </c>
       <c r="F16" s="0">
-        <v>0.01654303696787357</v>
+        <v>0.008271518483936785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.024470899470899476</v>
+        <v>0.012235449735449738</v>
       </c>
       <c r="B17" s="0">
-        <v>0.011610375144209734</v>
+        <v>0.0058051875721048668</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.055555555555555497</v>
+        <v>-0.027777777777777748</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0076028409361742766</v>
+        <v>0.0038014204680871383</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.008794508794508854</v>
+        <v>-0.004397254397254427</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.013422152311041186</v>
+        <v>-0.0067110761555205928</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.018332869210062219</v>
+        <v>-0.0091664346050311096</v>
       </c>
       <c r="B18" s="0">
-        <v>0.012869475275490316</v>
+        <v>0.0064347376377451582</v>
       </c>
       <c r="C18" s="0">
-        <v>0.044601791333817503</v>
+        <v>0.022300895666908752</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.030732413085354224</v>
+        <v>-0.015366206542677112</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.0040354413370286002</v>
+        <v>-0.0020177206685143001</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.041410514823213271</v>
+        <v>-0.020705257411606635</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.023990089863105732</v>
+        <v>0.011995044931552866</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.015969708221170165</v>
+        <v>-0.0079848541105850823</v>
       </c>
       <c r="C19" s="0">
-        <v>0.031517628739850964</v>
+        <v>0.015758814369925482</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0079856504005110795</v>
+        <v>-0.0039928252002555398</v>
       </c>
       <c r="E19" s="0">
-        <v>0.021104468723516345</v>
+        <v>0.010552234361758173</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.017665130568356363</v>
+        <v>-0.0088325652841781815</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.010395953253096141</v>
+        <v>0.0051979766265480704</v>
       </c>
       <c r="B20" s="0">
-        <v>0.021259981786297594</v>
+        <v>0.010629990893148797</v>
       </c>
       <c r="C20" s="0">
-        <v>0.034306742640075952</v>
+        <v>0.017153371320037976</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0023203013399092087</v>
+        <v>0.0011601506699546044</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0060371727038393969</v>
+        <v>0.0030185863519196984</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.012000355697834697</v>
+        <v>-0.0060001778489173485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.033353866687199973</v>
+        <v>-0.016676933343599987</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0031114110061478684</v>
+        <v>-0.0015557055030739342</v>
       </c>
       <c r="C21" s="0">
-        <v>0.02484902484902482</v>
+        <v>0.01242451242451241</v>
       </c>
       <c r="D21" s="0">
-        <v>0.0017958000414141084</v>
+        <v>0.00089790002070705421</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0047131718184349469</v>
+        <v>0.0023565859092174735</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.010253843587176903</v>
+        <v>-0.0051269217935884515</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.014348381995440807</v>
+        <v>0.0071741909977204033</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0038488389182833732</v>
+        <v>-0.0019244194591416866</v>
       </c>
       <c r="C22" s="0">
-        <v>0.013370310245310227</v>
+        <v>0.0066851551226551134</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0075638442511507392</v>
+        <v>-0.0037819221255753696</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0052910052910052907</v>
+        <v>0.0026455026455026454</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.038518677407566274</v>
+        <v>-0.019259338703783137</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0081589526033969961</v>
+        <v>-0.0040794763016984981</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0087413944556801737</v>
+        <v>-0.0043706972278400869</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.014173948384474666</v>
+        <v>-0.007086974192237333</v>
       </c>
       <c r="D23" s="0">
-        <v>0.01400851400851405</v>
+        <v>0.0070042570042570251</v>
       </c>
       <c r="E23" s="0">
-        <v>0.013502224028539789</v>
+        <v>0.0067511120142698944</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.0092009025832555102</v>
+        <v>-0.0046004512916277551</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0053625053625053487</v>
+        <v>0.0026812526812526744</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0039334447229184138</v>
+        <v>-0.0019667223614592069</v>
       </c>
       <c r="C24" s="0">
-        <v>0.012956179622846287</v>
+        <v>0.0064780898114231433</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.010303536619326037</v>
+        <v>-0.0051517683096630185</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.016981556455240701</v>
+        <v>-0.0084907782276203506</v>
       </c>
       <c r="F24" s="0">
-        <v>0.022426079443623306</v>
+        <v>0.011213039721811653</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0014571221467773454</v>
+        <v>-0.00072856107338867271</v>
       </c>
       <c r="B25" s="0">
-        <v>0.011368511368511358</v>
+        <v>0.0056842556842556791</v>
       </c>
       <c r="C25" s="0">
-        <v>0.005659338992672347</v>
+        <v>0.0028296694963361735</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.0026455026455026315</v>
+        <v>-0.0013227513227513157</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.034187681806729417</v>
+        <v>-0.017093840903364708</v>
       </c>
       <c r="F25" s="0">
-        <v>0.0098156191906192125</v>
+        <v>0.0049078095953096063</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.014132553606237774</v>
+        <v>-0.0070662768031188872</v>
       </c>
       <c r="B26" s="0">
-        <v>0.023932095360666789</v>
+        <v>0.011966047680333394</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0036405134444350562</v>
+        <v>0.0018202567222175281</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0042091836734693688</v>
+        <v>0.0021045918367346844</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.0060484782707004858</v>
+        <v>-0.0030242391353502429</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.0046685340802987696</v>
+        <v>-0.0023342670401493848</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.021346100293468728</v>
+        <v>-0.010673050146734364</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0061728395061728392</v>
+        <v>-0.0030864197530864196</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0093767236624379552</v>
+        <v>0.0046883618312189776</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0082225082225082236</v>
+        <v>-0.0041112541112541118</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0159408492741826</v>
+        <v>-0.0079704246370913001</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.020878020878020917</v>
+        <v>-0.010439010439010458</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.018587805492567375</v>
+        <v>-0.0092939027462836873</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0091889124147188639</v>
+        <v>0.0045944562073594319</v>
       </c>
       <c r="C28" s="0">
-        <v>0.014736959181403594</v>
+        <v>0.0073684795907017972</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0050359032501889611</v>
+        <v>-0.0025179516250944806</v>
       </c>
       <c r="E28" s="0">
-        <v>0.004145027186501879</v>
+        <v>0.0020725135932509395</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.011982570806100212</v>
+        <v>-0.0059912854030501062</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0045252018936229182</v>
+        <v>-0.0022626009468114591</v>
       </c>
       <c r="B29" s="0">
-        <v>0.015983015983015977</v>
+        <v>0.0079915079915079887</v>
       </c>
       <c r="C29" s="0">
-        <v>0.014192764192764176</v>
+        <v>0.0070963820963820881</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.027962062017789571</v>
+        <v>-0.013981031008894786</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.0088455802741516931</v>
+        <v>-0.0044227901370758466</v>
       </c>
       <c r="F29" s="0">
-        <v>0.0099385099385099485</v>
+        <v>0.0049692549692549742</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.015104390104390159</v>
+        <v>0.0075521950521950793</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0065458315458315208</v>
+        <v>0.0032729157729157604</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.0012393345726679078</v>
+        <v>-0.0006196672863339539</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0068818818818818794</v>
+        <v>-0.0034409409409409397</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.029960317460317465</v>
+        <v>-0.014980158730158732</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.0033097006781216964</v>
+        <v>-0.0016548503390608482</v>
       </c>
     </row>
   </sheetData>

--- a/statistics/SPSS/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
+++ b/statistics/SPSS/roiHumanBody_Within-PLI_gamma_B/roiHumanBody_Within-PLI_gamma_B.xlsx
@@ -82,9 +82,9 @@
     <col min="1" max="1" width="16.42578125" customWidth="true"/>
     <col min="2" max="2" width="16.42578125" customWidth="true"/>
     <col min="3" max="3" width="15.42578125" customWidth="true"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true"/>
+    <col min="4" max="4" width="15.42578125" customWidth="true"/>
     <col min="5" max="5" width="15.42578125" customWidth="true"/>
-    <col min="6" max="6" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -109,582 +109,582 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0021036661661661543</v>
+        <v>-0.0042073323323323086</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0081729998396665032</v>
+        <v>0.016345999679333006</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.0012236077226589481</v>
+        <v>-0.0024472154453178963</v>
       </c>
       <c r="D2" s="0">
-        <v>0.014247921390778559</v>
+        <v>0.028495842781557118</v>
       </c>
       <c r="E2" s="0">
-        <v>0.013826294406651549</v>
+        <v>0.027652588813303097</v>
       </c>
       <c r="F2" s="0">
-        <v>0.0062042360803970797</v>
+        <v>0.012408472160794159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.011081284365598076</v>
+        <v>-0.022162568731196153</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0032390734071406219</v>
+        <v>-0.0064781468142812437</v>
       </c>
       <c r="C3" s="0">
-        <v>-0.013197501222711308</v>
+        <v>-0.026395002445422616</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.002023031434796152</v>
+        <v>-0.004046062869592304</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.012177093059446031</v>
+        <v>-0.024354186118892063</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0090454310379122632</v>
+        <v>-0.018090862075824526</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.015254750548868198</v>
+        <v>-0.030509501097736397</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.01398237657636156</v>
+        <v>-0.027964753152723121</v>
       </c>
       <c r="C4" s="0">
-        <v>0.010976515362480274</v>
+        <v>0.021953030724960548</v>
       </c>
       <c r="D4" s="0">
-        <v>0.0075379867046533669</v>
+        <v>0.015075973409306734</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.021280051981806387</v>
+        <v>-0.042560103963612775</v>
       </c>
       <c r="F4" s="0">
-        <v>0.0055843389176722519</v>
+        <v>0.011168677835344504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.017221302935588642</v>
+        <v>0.034442605871177284</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.00029394473838919438</v>
+        <v>-0.00058788947677838876</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.0070068963257817751</v>
+        <v>-0.01401379265156355</v>
       </c>
       <c r="D5" s="0">
-        <v>0.010612073112073128</v>
+        <v>0.021224146224146256</v>
       </c>
       <c r="E5" s="0">
-        <v>0.012981928882664182</v>
+        <v>0.025963857765328363</v>
       </c>
       <c r="F5" s="0">
-        <v>0.012007328183798779</v>
+        <v>0.024014656367597559</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0004647504647504741</v>
+        <v>-0.0009295009295009482</v>
       </c>
       <c r="B6" s="0">
-        <v>0.016785666875272623</v>
+        <v>0.033571333750545246</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00087610801896514934</v>
+        <v>0.0017522160379302987</v>
       </c>
       <c r="D6" s="0">
-        <v>0.001151571739807053</v>
+        <v>0.0023031434796141059</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.0028824743110457129</v>
+        <v>-0.0057649486220914259</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0001866946311390727</v>
+        <v>0.0003733892622781454</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.00083243823845324805</v>
+        <v>0.0016648764769064961</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.014878005074083503</v>
+        <v>-0.029756010148167006</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.012837512837512832</v>
+        <v>-0.025675025675025664</v>
       </c>
       <c r="D7" s="0">
-        <v>0.0070767195767195701</v>
+        <v>0.01415343915343914</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0021518329554043869</v>
+        <v>0.0043036659108087738</v>
       </c>
       <c r="F7" s="0">
-        <v>0.0023484084992021342</v>
+        <v>0.0046968169984042685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.0033152900799959667</v>
+        <v>0.0066305801599919334</v>
       </c>
       <c r="B8" s="0">
-        <v>0.0046974630307963644</v>
+        <v>0.0093949260615927288</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0068982531284118159</v>
+        <v>0.013796506256823632</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.013371659204992517</v>
+        <v>-0.026743318409985034</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.006774121059835353</v>
+        <v>-0.013548242119670706</v>
       </c>
       <c r="F8" s="0">
-        <v>8.2671957671934249e-05</v>
+        <v>0.0001653439153438685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.0054463283629950093</v>
+        <v>0.010892656725990019</v>
       </c>
       <c r="B9" s="0">
-        <v>0.0023687611245215151</v>
+        <v>0.0047375222490430302</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0045624310330192874</v>
+        <v>0.0091248620660385749</v>
       </c>
       <c r="D9" s="0">
-        <v>-0.0065885613504661211</v>
+        <v>-0.013177122700932242</v>
       </c>
       <c r="E9" s="0">
-        <v>-0.014243744635901501</v>
+        <v>-0.028487489271803002</v>
       </c>
       <c r="F9" s="0">
-        <v>0.0022239240075497407</v>
+        <v>0.0044478480150994815</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059045840558445764</v>
+        <v>-0.011809168111689153</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.0036549707602339249</v>
+        <v>-0.0073099415204678497</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0046046046046046146</v>
+        <v>0.0092092092092092293</v>
       </c>
       <c r="D10" s="0">
-        <v>0.018729714107865364</v>
+        <v>0.037459428215730728</v>
       </c>
       <c r="E10" s="0">
-        <v>0.0066385830274719171</v>
+        <v>0.013277166054943834</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.0017184651638433301</v>
+        <v>-0.0034369303276866603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.0018323497490164015</v>
+        <v>0.0036646994980328029</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.0040378724589250903</v>
+        <v>-0.0080757449178501806</v>
       </c>
       <c r="C11" s="0">
-        <v>-0.015658515658515643</v>
+        <v>-0.031317031317031285</v>
       </c>
       <c r="D11" s="0">
-        <v>-0.0027858215358215338</v>
+        <v>-0.0055716430716430676</v>
       </c>
       <c r="E11" s="0">
-        <v>-0.0096230158730158943</v>
+        <v>-0.019246031746031789</v>
       </c>
       <c r="F11" s="0">
-        <v>-0.012153484375706611</v>
+        <v>-0.024306968751413222</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.011241601153881856</v>
+        <v>-0.022483202307763711</v>
       </c>
       <c r="B12" s="0">
-        <v>0.013163168864923261</v>
+        <v>0.026326337729846522</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0048436191293334402</v>
+        <v>0.0096872382586668804</v>
       </c>
       <c r="D12" s="0">
-        <v>0.0065341926244181989</v>
+        <v>0.013068385248836398</v>
       </c>
       <c r="E12" s="0">
-        <v>0.014735913858720862</v>
+        <v>0.029471827717441723</v>
       </c>
       <c r="F12" s="0">
-        <v>0.0022724189390855992</v>
+        <v>0.0045448378781711984</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.00021153310626997879</v>
+        <v>0.00042306621253995758</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.00054161304161304269</v>
+        <v>-0.0010832260832260854</v>
       </c>
       <c r="C13" s="0">
-        <v>0.0015020189362294489</v>
+        <v>0.0030040378724588979</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.018551587301587305</v>
+        <v>-0.03710317460317461</v>
       </c>
       <c r="E13" s="0">
-        <v>0.0088353005019671388</v>
+        <v>0.017670601003934278</v>
       </c>
       <c r="F13" s="0">
-        <v>0.0074465008675535099</v>
+        <v>0.01489300173510702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.00036953052826069199</v>
+        <v>-0.00073906105652138399</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.004078483245149922</v>
+        <v>-0.008156966490299844</v>
       </c>
       <c r="C14" s="0">
-        <v>-0.012714755571898412</v>
+        <v>-0.025429511143796824</v>
       </c>
       <c r="D14" s="0">
-        <v>0.0013784793196558037</v>
+        <v>0.0027569586393116075</v>
       </c>
       <c r="E14" s="0">
-        <v>-0.010045760045760063</v>
+        <v>-0.020091520091520126</v>
       </c>
       <c r="F14" s="0">
-        <v>-0.0074822297044519342</v>
+        <v>-0.014964459408903868</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.014179764179764173</v>
+        <v>0.028359528359528346</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.016877989100211287</v>
+        <v>-0.033755978200422573</v>
       </c>
       <c r="C15" s="0">
-        <v>-0.0050284441261884694</v>
+        <v>-0.010056888252376939</v>
       </c>
       <c r="D15" s="0">
-        <v>-0.013415671310408141</v>
+        <v>-0.026831342620816281</v>
       </c>
       <c r="E15" s="0">
-        <v>0.0079659810051966873</v>
+        <v>0.015931962010393375</v>
       </c>
       <c r="F15" s="0">
-        <v>-0.00078299125918174228</v>
+        <v>-0.0015659825183634846</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.010033843367176665</v>
+        <v>0.020067686734353329</v>
       </c>
       <c r="B16" s="0">
-        <v>0.02946080478975216</v>
+        <v>0.058921609579504319</v>
       </c>
       <c r="C16" s="0">
-        <v>-0.0055320888654221689</v>
+        <v>-0.011064177730844338</v>
       </c>
       <c r="D16" s="0">
-        <v>0.013888888888888881</v>
+        <v>0.027777777777777762</v>
       </c>
       <c r="E16" s="0">
-        <v>-0.0051761718428385145</v>
+        <v>-0.010352343685677029</v>
       </c>
       <c r="F16" s="0">
-        <v>0.008271518483936785</v>
+        <v>0.01654303696787357</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.012235449735449738</v>
+        <v>0.024470899470899476</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0058051875721048668</v>
+        <v>0.011610375144209734</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.027777777777777748</v>
+        <v>-0.055555555555555497</v>
       </c>
       <c r="D17" s="0">
-        <v>0.0038014204680871383</v>
+        <v>0.0076028409361742766</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.004397254397254427</v>
+        <v>-0.008794508794508854</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.0067110761555205928</v>
+        <v>-0.013422152311041186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0091664346050311096</v>
+        <v>-0.018332869210062219</v>
       </c>
       <c r="B18" s="0">
-        <v>0.0064347376377451582</v>
+        <v>0.012869475275490316</v>
       </c>
       <c r="C18" s="0">
-        <v>0.022300895666908752</v>
+        <v>0.044601791333817503</v>
       </c>
       <c r="D18" s="0">
-        <v>-0.015366206542677112</v>
+        <v>-0.030732413085354224</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.0020177206685143001</v>
+        <v>-0.0040354413370286002</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.020705257411606635</v>
+        <v>-0.041410514823213271</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.011995044931552866</v>
+        <v>0.023990089863105732</v>
       </c>
       <c r="B19" s="0">
-        <v>-0.0079848541105850823</v>
+        <v>-0.015969708221170165</v>
       </c>
       <c r="C19" s="0">
-        <v>0.015758814369925482</v>
+        <v>0.031517628739850964</v>
       </c>
       <c r="D19" s="0">
-        <v>-0.0039928252002555398</v>
+        <v>-0.0079856504005110795</v>
       </c>
       <c r="E19" s="0">
-        <v>0.010552234361758173</v>
+        <v>0.021104468723516345</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.0088325652841781815</v>
+        <v>-0.017665130568356363</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.0051979766265480704</v>
+        <v>0.010395953253096141</v>
       </c>
       <c r="B20" s="0">
-        <v>0.010629990893148797</v>
+        <v>0.021259981786297594</v>
       </c>
       <c r="C20" s="0">
-        <v>0.017153371320037976</v>
+        <v>0.034306742640075952</v>
       </c>
       <c r="D20" s="0">
-        <v>0.0011601506699546044</v>
+        <v>0.0023203013399092087</v>
       </c>
       <c r="E20" s="0">
-        <v>0.0030185863519196984</v>
+        <v>0.0060371727038393969</v>
       </c>
       <c r="F20" s="0">
-        <v>-0.0060001778489173485</v>
+        <v>-0.012000355697834697</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.016676933343599987</v>
+        <v>-0.033353866687199973</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.0015557055030739342</v>
+        <v>-0.0031114110061478684</v>
       </c>
       <c r="C21" s="0">
-        <v>0.01242451242451241</v>
+        <v>0.02484902484902482</v>
       </c>
       <c r="D21" s="0">
-        <v>0.00089790002070705421</v>
+        <v>0.0017958000414141084</v>
       </c>
       <c r="E21" s="0">
-        <v>0.0023565859092174735</v>
+        <v>0.0047131718184349469</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.0051269217935884515</v>
+        <v>-0.010253843587176903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.0071741909977204033</v>
+        <v>0.014348381995440807</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.0019244194591416866</v>
+        <v>-0.0038488389182833732</v>
       </c>
       <c r="C22" s="0">
-        <v>0.0066851551226551134</v>
+        <v>0.013370310245310227</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.0037819221255753696</v>
+        <v>-0.0075638442511507392</v>
       </c>
       <c r="E22" s="0">
-        <v>0.0026455026455026454</v>
+        <v>0.0052910052910052907</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.019259338703783137</v>
+        <v>-0.038518677407566274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0040794763016984981</v>
+        <v>-0.0081589526033969961</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.0043706972278400869</v>
+        <v>-0.0087413944556801737</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.007086974192237333</v>
+        <v>-0.014173948384474666</v>
       </c>
       <c r="D23" s="0">
-        <v>0.0070042570042570251</v>
+        <v>0.01400851400851405</v>
       </c>
       <c r="E23" s="0">
-        <v>0.0067511120142698944</v>
+        <v>0.013502224028539789</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.0046004512916277551</v>
+        <v>-0.0092009025832555102</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.0026812526812526744</v>
+        <v>0.0053625053625053487</v>
       </c>
       <c r="B24" s="0">
-        <v>-0.0019667223614592069</v>
+        <v>-0.0039334447229184138</v>
       </c>
       <c r="C24" s="0">
-        <v>0.0064780898114231433</v>
+        <v>0.012956179622846287</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.0051517683096630185</v>
+        <v>-0.010303536619326037</v>
       </c>
       <c r="E24" s="0">
-        <v>-0.0084907782276203506</v>
+        <v>-0.016981556455240701</v>
       </c>
       <c r="F24" s="0">
-        <v>0.011213039721811653</v>
+        <v>0.022426079443623306</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.00072856107338867271</v>
+        <v>-0.0014571221467773454</v>
       </c>
       <c r="B25" s="0">
-        <v>0.0056842556842556791</v>
+        <v>0.011368511368511358</v>
       </c>
       <c r="C25" s="0">
-        <v>0.0028296694963361735</v>
+        <v>0.005659338992672347</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.0013227513227513157</v>
+        <v>-0.0026455026455026315</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.017093840903364708</v>
+        <v>-0.034187681806729417</v>
       </c>
       <c r="F25" s="0">
-        <v>0.0049078095953096063</v>
+        <v>0.0098156191906192125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0070662768031188872</v>
+        <v>-0.014132553606237774</v>
       </c>
       <c r="B26" s="0">
-        <v>0.011966047680333394</v>
+        <v>0.023932095360666789</v>
       </c>
       <c r="C26" s="0">
-        <v>0.0018202567222175281</v>
+        <v>0.0036405134444350562</v>
       </c>
       <c r="D26" s="0">
-        <v>0.0021045918367346844</v>
+        <v>0.0042091836734693688</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.0030242391353502429</v>
+        <v>-0.0060484782707004858</v>
       </c>
       <c r="F26" s="0">
-        <v>-0.0023342670401493848</v>
+        <v>-0.0046685340802987696</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.010673050146734364</v>
+        <v>-0.021346100293468728</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0030864197530864196</v>
+        <v>-0.0061728395061728392</v>
       </c>
       <c r="C27" s="0">
-        <v>0.0046883618312189776</v>
+        <v>0.0093767236624379552</v>
       </c>
       <c r="D27" s="0">
-        <v>-0.0041112541112541118</v>
+        <v>-0.0082225082225082236</v>
       </c>
       <c r="E27" s="0">
-        <v>-0.0079704246370913001</v>
+        <v>-0.0159408492741826</v>
       </c>
       <c r="F27" s="0">
-        <v>-0.010439010439010458</v>
+        <v>-0.020878020878020917</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0092939027462836873</v>
+        <v>-0.018587805492567375</v>
       </c>
       <c r="B28" s="0">
-        <v>0.0045944562073594319</v>
+        <v>0.0091889124147188639</v>
       </c>
       <c r="C28" s="0">
-        <v>0.0073684795907017972</v>
+        <v>0.014736959181403594</v>
       </c>
       <c r="D28" s="0">
-        <v>-0.0025179516250944806</v>
+        <v>-0.0050359032501889611</v>
       </c>
       <c r="E28" s="0">
-        <v>0.0020725135932509395</v>
+        <v>0.004145027186501879</v>
       </c>
       <c r="F28" s="0">
-        <v>-0.0059912854030501062</v>
+        <v>-0.011982570806100212</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0022626009468114591</v>
+        <v>-0.0045252018936229182</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0079915079915079887</v>
+        <v>0.015983015983015977</v>
       </c>
       <c r="C29" s="0">
-        <v>0.0070963820963820881</v>
+        <v>0.014192764192764176</v>
       </c>
       <c r="D29" s="0">
-        <v>-0.013981031008894786</v>
+        <v>-0.027962062017789571</v>
       </c>
       <c r="E29" s="0">
-        <v>-0.0044227901370758466</v>
+        <v>-0.0088455802741516931</v>
       </c>
       <c r="F29" s="0">
-        <v>0.0049692549692549742</v>
+        <v>0.0099385099385099485</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.0075521950521950793</v>
+        <v>0.015104390104390159</v>
       </c>
       <c r="B30" s="0">
-        <v>0.0032729157729157604</v>
+        <v>0.0065458315458315208</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.0006196672863339539</v>
+        <v>-0.0012393345726679078</v>
       </c>
       <c r="D30" s="0">
-        <v>-0.0034409409409409397</v>
+        <v>-0.0068818818818818794</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.014980158730158732</v>
+        <v>-0.029960317460317465</v>
       </c>
       <c r="F30" s="0">
-        <v>-0.0016548503390608482</v>
+        <v>-0.0033097006781216964</v>
       </c>
     </row>
   </sheetData>
